--- a/biology/Zoologie/Cimbicidae/Cimbicidae.xlsx
+++ b/biology/Zoologie/Cimbicidae/Cimbicidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cimbicidae sont une famille d'hyménoptères, des insectes proches des guêpes. Ce sont des symphytes au corps trapu et aux antennes nettement en massue. Certaines espèces sont de grande taille. Cimbex femoratus peut atteindre 28 mm de long.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon Hymenoptera Online Database, les genres sont répartis en quatre sous-familles :
 Abiinae
